--- a/hongbao/红包.xlsx
+++ b/hongbao/红包.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B39FDB-C922-4DE2-9598-DD432ADED089}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572A92F-50C3-4939-BEC3-7FF7A1CF7D5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190607" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <r>
       <t>2018</t>
@@ -183,6 +183,22 @@
   </si>
   <si>
     <t>许学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王若轩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千新利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶兆聪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王继斌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +332,12 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,17 +619,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
@@ -648,10 +670,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -661,15 +683,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>SUM(D4:D42)</f>
-        <v>264</v>
+        <f>SUM(D4:D46)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
@@ -686,10 +706,10 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -700,10 +720,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -712,8 +730,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -724,10 +742,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -736,10 +752,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -748,10 +762,8 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -760,10 +772,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -772,10 +782,8 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -790,10 +798,10 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -804,10 +812,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
@@ -816,10 +822,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -828,83 +832,107 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="2" t="s">
+      <c r="D21" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="2"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D26" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D27" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="10">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
+      <c r="B29" s="2"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4">
@@ -943,10 +971,32 @@
     <row r="41" spans="4:4">
       <c r="D41" s="10"/>
     </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
